--- a/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog.xlsx
+++ b/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ordenador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80156e5d58948c98/10519_G1_INGSWI/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9F0101D-9E60-4373-B50C-1FC93A98C5CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C9F0101D-9E60-4373-B50C-1FC93A98C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0001D721-A04A-4B94-A0BB-C4B07CA7310D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$H$1000</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -596,37 +607,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -805,7 +786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074088944"/>
@@ -864,7 +845,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074086032"/>
@@ -906,7 +887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -943,7 +924,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1514,16 +1495,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1767,18 +1748,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +1785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -1828,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1852,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -1876,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
@@ -1900,7 +1881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1909,7 +1890,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1918,7 +1899,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1927,998 +1908,998 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:H1000" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -2933,22 +2914,22 @@
   </sheetPr>
   <dimension ref="A1:I1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="9" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
@@ -2998,7 +2979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -3014,7 +2995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
@@ -3032,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -3050,7 +3031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -3068,7 +3049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
@@ -3086,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
@@ -3104,7 +3085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -3130,7 +3111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>8</v>
       </c>
@@ -3154,7 +3135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -3170,7 +3151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
@@ -3188,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>22</v>
       </c>
@@ -3206,7 +3187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>48</v>
       </c>
@@ -3224,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>49</v>
       </c>
@@ -3242,7 +3223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>50</v>
       </c>
@@ -3261,7 +3242,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>51</v>
       </c>
@@ -3280,7 +3261,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>52</v>
       </c>
@@ -3299,7 +3280,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>53</v>
       </c>
@@ -3318,7 +3299,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>54</v>
       </c>
@@ -3336,7 +3317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>55</v>
       </c>
@@ -3354,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
@@ -3380,7 +3361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>31</v>
       </c>
@@ -3404,7 +3385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -3420,7 +3401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>56</v>
       </c>
@@ -3438,7 +3419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>57</v>
       </c>
@@ -3456,7 +3437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
@@ -3474,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>59</v>
       </c>
@@ -3492,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
@@ -3510,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -3528,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>9</v>
       </c>
@@ -3554,7 +3535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>32</v>
       </c>
@@ -3578,7 +3559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -3594,7 +3575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>62</v>
       </c>
@@ -3612,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>63</v>
       </c>
@@ -3630,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>64</v>
       </c>
@@ -3648,7 +3629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>65</v>
       </c>
@@ -3666,7 +3647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>66</v>
       </c>
@@ -3684,7 +3665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>75</v>
       </c>
@@ -3702,7 +3683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>76</v>
       </c>
@@ -3720,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>77</v>
       </c>
@@ -3738,7 +3719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>78</v>
       </c>
@@ -3756,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
@@ -3766,987 +3747,969 @@
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B42:E42"/>
@@ -4760,6 +4723,24 @@
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4773,20 +4754,20 @@
   </sheetPr>
   <dimension ref="A1:I1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="10" t="s">
         <v>17</v>
@@ -4810,7 +4791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
@@ -4837,7 +4818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
@@ -4864,7 +4845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="s">
         <v>20</v>
@@ -4892,7 +4873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
         <v>46</v>
@@ -4920,7 +4901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="12" t="s">
         <v>47</v>
@@ -4948,7 +4929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -4976,7 +4957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="10" t="s">
         <v>22</v>
@@ -5004,7 +4985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="10" t="s">
         <v>48</v>
@@ -5032,7 +5013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="10" t="s">
         <v>49</v>
@@ -5060,7 +5041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="10" t="s">
         <v>50</v>
@@ -5088,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="10" t="s">
         <v>51</v>
@@ -5116,7 +5097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="10" t="s">
         <v>52</v>
@@ -5144,7 +5125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="10" t="s">
         <v>53</v>
@@ -5172,7 +5153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="10" t="s">
         <v>54</v>
@@ -5200,7 +5181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
         <v>55</v>
@@ -5228,7 +5209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="12" t="s">
         <v>56</v>
@@ -5256,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="12" t="s">
         <v>57</v>
@@ -5284,7 +5265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="12" t="s">
         <v>58</v>
@@ -5312,7 +5293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="12" t="s">
         <v>59</v>
@@ -5340,7 +5321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="12" t="s">
         <v>60</v>
@@ -5368,7 +5349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="12" t="s">
         <v>61</v>
@@ -5396,7 +5377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="10" t="s">
         <v>62</v>
@@ -5424,7 +5405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="10" t="s">
         <v>63</v>
@@ -5452,7 +5433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="10" t="s">
         <v>64</v>
@@ -5480,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="10" t="s">
         <v>65</v>
@@ -5508,7 +5489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="10" t="s">
         <v>66</v>
@@ -5536,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="10" t="s">
         <v>75</v>
@@ -5564,7 +5545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="10" t="s">
         <v>76</v>
@@ -5592,7 +5573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>77</v>
       </c>
@@ -5619,7 +5600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>78</v>
       </c>
@@ -5646,8 +5627,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>29</v>
       </c>
@@ -5676,7 +5657,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>30</v>
       </c>
@@ -5705,995 +5686,995 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog.xlsx
+++ b/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80156e5d58948c98/10519_G1_INGSWI/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C9F0101D-9E60-4373-B50C-1FC93A98C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0001D721-A04A-4B94-A0BB-C4B07CA7310D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C9F0101D-9E60-4373-B50C-1FC93A98C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3596257-5626-4560-8D69-FCE3BCB56C1A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11868" yWindow="3600" windowWidth="10332" windowHeight="9912" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -2914,8 +2914,8 @@
   </sheetPr>
   <dimension ref="A1:I1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:E42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2960,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>37</v>
@@ -4710,6 +4710,24 @@
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B42:E42"/>
@@ -4723,24 +4741,6 @@
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4754,8 +4754,8 @@
   </sheetPr>
   <dimension ref="A1:I1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog.xlsx
+++ b/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80156e5d58948c98/10519_G1_INGSWI/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C9F0101D-9E60-4373-B50C-1FC93A98C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3596257-5626-4560-8D69-FCE3BCB56C1A}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{C9F0101D-9E60-4373-B50C-1FC93A98C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60FA44CE-8AC8-4910-A2A2-0CAD6B0EB8C2}"/>
   <bookViews>
-    <workbookView xWindow="11868" yWindow="3600" windowWidth="10332" windowHeight="9912" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint0" sheetId="2" r:id="rId2"/>
     <sheet name="burdonchart" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$H$1000</definedName>
   </definedNames>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>Tema</t>
   </si>
@@ -141,12 +144,6 @@
     <t>Página web de inicio</t>
   </si>
   <si>
-    <t>Consulta de productos</t>
-  </si>
-  <si>
-    <t>Enlazamiento de las redes sociales en la página web</t>
-  </si>
-  <si>
     <t>Carrusel de imágenes</t>
   </si>
   <si>
@@ -177,36 +174,9 @@
     <t>Enlazar distintas redes sociales para la revisión de los productos de una forma más creativa.</t>
   </si>
   <si>
-    <t>REQ001-4</t>
-  </si>
-  <si>
-    <t>REQ001-5</t>
-  </si>
-  <si>
     <t>REQ002-3</t>
   </si>
   <si>
-    <t>REQ002-4</t>
-  </si>
-  <si>
-    <t>REQ002-5</t>
-  </si>
-  <si>
-    <t>REQ002-6</t>
-  </si>
-  <si>
-    <t>REQ002-7</t>
-  </si>
-  <si>
-    <t>REQ002-8</t>
-  </si>
-  <si>
-    <t>REQ002-9</t>
-  </si>
-  <si>
-    <t>REQ002-10</t>
-  </si>
-  <si>
     <t>REQ003-1</t>
   </si>
   <si>
@@ -216,15 +186,6 @@
     <t>REQ003-3</t>
   </si>
   <si>
-    <t>REQ003-4</t>
-  </si>
-  <si>
-    <t>REQ003-5</t>
-  </si>
-  <si>
-    <t>REQ003-6</t>
-  </si>
-  <si>
     <t>REQ004-1</t>
   </si>
   <si>
@@ -237,110 +198,74 @@
     <t>REQ004-4</t>
   </si>
   <si>
-    <t>REQ004-5</t>
-  </si>
-  <si>
-    <t>Jefferson Aguilar, Joseph Andino, Alan Almeida, Mateo Amaguaya, Jhosue Baquero</t>
-  </si>
-  <si>
-    <t>Jefferson Aguilar, Alan Almeida</t>
-  </si>
-  <si>
-    <t>Mateo Amaguaya, Jhosue Baquero</t>
-  </si>
-  <si>
-    <t>Joseph Andino</t>
-  </si>
-  <si>
     <t>Alan Almeida</t>
   </si>
   <si>
-    <t>Jefferson Aguilar</t>
-  </si>
-  <si>
-    <t>Perfil del Proyecto verificado</t>
-  </si>
-  <si>
     <t>Permitir consultar los productos dentro de la página web.</t>
   </si>
   <si>
-    <t>REQ004-6</t>
-  </si>
-  <si>
-    <t>REQ004-7</t>
-  </si>
-  <si>
-    <t>REQ004-8</t>
-  </si>
-  <si>
-    <t>REQ004-9</t>
-  </si>
-  <si>
-    <t>Descripción del proyecto comprobada.</t>
-  </si>
-  <si>
-    <t>Actualización de la especificación de requisitos de software.</t>
-  </si>
-  <si>
-    <t>Elaboración de la Matriz de Historias de Usuario (HU).</t>
-  </si>
-  <si>
-    <t>Creación de los Casos de Uso.</t>
-  </si>
-  <si>
-    <t>Actualización del proyecto en GitHub.</t>
-  </si>
-  <si>
-    <t>Actualizar la especificación de requisitos de software.</t>
-  </si>
-  <si>
-    <t>Actualización de la Matriz de Historias de Usuario (HU).</t>
-  </si>
-  <si>
-    <t>Actualización de los Casos de Uso.</t>
-  </si>
-  <si>
-    <t>Codificación del Req01 y Req02.</t>
-  </si>
-  <si>
-    <t>Elaboración de pruebas de caja negra.</t>
-  </si>
-  <si>
-    <t>Generación de pruebas de caja blanca.</t>
-  </si>
-  <si>
-    <t>Creación de reporte de errores.</t>
-  </si>
-  <si>
-    <t>Elaboración del acta de la reunión con el equipo Scrum.</t>
-  </si>
-  <si>
-    <t>Renovación de la Matriz de Historias de Usuario (HU).</t>
-  </si>
-  <si>
-    <t>Reunión con el Team Scrum y Scrum Master.</t>
-  </si>
-  <si>
-    <t>Modificación del proyecto en GitHub.</t>
-  </si>
-  <si>
-    <t>Reunión con el Team Scrum, Scrum Master y Product Owner.</t>
-  </si>
-  <si>
-    <t>Modificación del Cronograma.</t>
-  </si>
-  <si>
-    <t>Codificación del Req03 y Req04.</t>
-  </si>
-  <si>
-    <t>Elaboración del acta de la reunión con el equipo Scrum y el Product Owner.</t>
+    <t>Página de inicio</t>
+  </si>
+  <si>
+    <t>Catálogo de productos de la empresa</t>
+  </si>
+  <si>
+    <t>Redes sociales de la empresa</t>
+  </si>
+  <si>
+    <t>Mostrar el apartado de bienvenida de la página web</t>
+  </si>
+  <si>
+    <t>Visualizar de menú de inicio.</t>
+  </si>
+  <si>
+    <t>Mostrar la página principal de la empresa AyB Copy Systems.</t>
+  </si>
+  <si>
+    <t>Visualizar el menú de opciones.</t>
+  </si>
+  <si>
+    <t>Joseph Andino, Jefferson Aguilar</t>
+  </si>
+  <si>
+    <t>Ingresar a la página web desarrollada.</t>
+  </si>
+  <si>
+    <t>Contactar con el accesor en diferentes aplicativos de contactos.</t>
+  </si>
+  <si>
+    <t>Dar click en el logo Facebook y dar click en el logo Instagram.</t>
+  </si>
+  <si>
+    <t>Visualizar los logos de las redes sociales (Facebook y Instagram).</t>
+  </si>
+  <si>
+    <t>Agregar imágenes de productos y de la empresa.</t>
+  </si>
+  <si>
+    <t>Insertar dos botones interactivos para cambiar las imágenes.</t>
+  </si>
+  <si>
+    <t>Mateo Baquero, Mateo Amaguaya</t>
+  </si>
+  <si>
+    <t>Alan Almeida, Jefferson Aguilar</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción de Catálogo y mostrar los productos del inventario.</t>
+  </si>
+  <si>
+    <t>Dar click en el botón "Avanzar" para visualizar la siguiente imágen.</t>
+  </si>
+  <si>
+    <t>Dar click en el botón "Retroceder" para visualizar la anterior imágen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -412,8 +337,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +374,12 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -464,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,7 +480,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +539,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -612,116 +554,45 @@
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>burdonchart!$B$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Estimadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="3366CC"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>burdonchart!$C$35:$H$35</c:f>
+              <c:f>burdonchart!$B$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1BF-4C1C-AB3A-E18BB09BCAC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>burdonchart!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Estimadas
-Restantes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>burdonchart!$C$36:$H$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38.399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -730,7 +601,57 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B1BF-4C1C-AB3A-E18BB09BCAC1}"/>
+              <c16:uniqueId val="{00000000-6A58-4587-BDAC-F865E1D07B99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>burdonchart!$B$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A58-4587-BDAC-F865E1D07B99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -743,61 +664,64 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1074086032"/>
-        <c:axId val="1074088944"/>
+        <c:axId val="1079733912"/>
+        <c:axId val="2021620003"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1074086032"/>
+        <c:axId val="1079733912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074088944"/>
+        <c:crossAx val="2021620003"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1074088944"/>
+        <c:axId val="2021620003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,86 +729,84 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074086032"/>
+        <c:crossAx val="1079733912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr lvl="0" rtl="0">
+            <a:defRPr b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="es-MX"/>
@@ -892,41 +814,9 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -935,587 +825,28 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732336</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="4" name="Chart 1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F4B4BA-565B-4B6A-B9C1-B037ED079713}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F88A32A-3405-4177-B6F8-3E44F23D0074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1527,15 +858,80 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Backlog"/>
+      <sheetName val="sprint0"/>
+      <sheetName val="burdonchart"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Horas Estimadas</v>
+          </cell>
+          <cell r="C11">
+            <v>12</v>
+          </cell>
+          <cell r="D11">
+            <v>11</v>
+          </cell>
+          <cell r="E11">
+            <v>10</v>
+          </cell>
+          <cell r="F11">
+            <v>5</v>
+          </cell>
+          <cell r="G11">
+            <v>3</v>
+          </cell>
+          <cell r="H11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Horas Estimadas
+Restantes</v>
+          </cell>
+          <cell r="C12">
+            <v>12</v>
+          </cell>
+          <cell r="D12">
+            <v>9.6</v>
+          </cell>
+          <cell r="E12">
+            <v>7.1999999999999993</v>
+          </cell>
+          <cell r="F12">
+            <v>4.7999999999999989</v>
+          </cell>
+          <cell r="G12">
+            <v>2.399999999999999</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="I4:I33" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB9FFD1E-A1F5-4E9F-8462-CCDFD51A7E2B}" name="Table_13" displayName="Table_13" ref="I4:I17" headerRowCount="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{93A1C680-DF3F-418A-9829-DCC7FA6D793F}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1745,13 +1141,13 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="41.5546875" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" customWidth="1"/>
@@ -1776,7 +1172,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>12</v>
@@ -1790,16 +1186,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="13" t="s">
@@ -1809,21 +1205,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>34</v>
+      <c r="B3" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
@@ -1838,16 +1234,16 @@
         <v>31</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="13" t="s">
@@ -1862,16 +1258,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
@@ -2912,24 +2308,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1004"/>
+  <dimension ref="A1:H987"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" customWidth="1"/>
     <col min="7" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -2955,7 +2351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
@@ -2963,13 +2359,13 @@
         <v>33</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24" t="s">
@@ -2979,7 +2375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -2995,763 +2391,470 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="22" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="22" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="22" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21">
-        <v>4</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20">
-        <v>2</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4691,56 +3794,22 @@
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
+  <mergeCells count="14">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4752,221 +3821,222 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1025"/>
+  <dimension ref="A1:I1018"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="6" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f>SUM(D4:H4)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" ref="I4:I33" si="0">SUM(D4:H4)</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
       </c>
       <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="I5:I16" si="0">SUM(D5:H5)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="12" t="s">
-        <v>46</v>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="12" t="s">
-        <v>47</v>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
         <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="10" t="s">
-        <v>21</v>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
       <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
       <c r="H9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
+      <c r="B10" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -4975,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
@@ -4987,11 +4057,11 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="10" t="s">
-        <v>48</v>
+      <c r="B11" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -5000,82 +4070,82 @@
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="10" t="s">
-        <v>49</v>
+      <c r="B12" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="10" t="s">
-        <v>50</v>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="10" t="s">
-        <v>51</v>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -5084,60 +4154,60 @@
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="10" t="s">
-        <v>52</v>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="10" t="s">
-        <v>53</v>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
       </c>
       <c r="D16" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -5146,558 +4216,123 @@
         <v>1</v>
       </c>
       <c r="H16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="6">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8">
+        <f>SUM(C4:C16)</f>
+        <v>21</v>
+      </c>
+      <c r="D19" s="8">
+        <f>C19-SUM(D4:D16)</f>
+        <v>17</v>
+      </c>
+      <c r="E19" s="8">
+        <f>D19-SUM(E4:E16)</f>
+        <v>11</v>
+      </c>
+      <c r="F19" s="8">
+        <f>E19-SUM(F4:F16)</f>
+        <v>5</v>
+      </c>
+      <c r="G19" s="8">
+        <f>F19-SUM(G4:G16)</f>
         <v>4</v>
       </c>
-      <c r="D19" s="5">
+      <c r="H19" s="8">
+        <f>G19-SUM(H4:H16)</f>
         <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8">
+        <f>SUM(C4:C17)</f>
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <f>C20-(SUM(C4:C17)/5)</f>
+        <v>16.8</v>
+      </c>
+      <c r="E20" s="2">
+        <f>D20-(SUM(C4:C17)/5)</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <f>E20-(SUM(C4:C17)/5)</f>
+        <v>8.4000000000000021</v>
+      </c>
+      <c r="G20" s="2">
+        <f>F20-(SUM(C4:C17)/5)</f>
+        <v>4.200000000000002</v>
+      </c>
+      <c r="H20" s="2">
+        <f>G20-(SUM(C4:C17)/5)</f>
         <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="6">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="6">
-        <v>4</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="6">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2</v>
-      </c>
-      <c r="D32" s="5">
-        <v>2</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="6">
-        <v>4</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="8">
-        <f>SUM(C4:C33)</f>
-        <v>96</v>
-      </c>
-      <c r="D35" s="8">
-        <f>C35-SUM(D4:D33)</f>
-        <v>80</v>
-      </c>
-      <c r="E35" s="8">
-        <f>D35-SUM(E4:E33)</f>
-        <v>56</v>
-      </c>
-      <c r="F35" s="8">
-        <f>E35-SUM(F4:F33)</f>
-        <v>38</v>
-      </c>
-      <c r="G35" s="8">
-        <f>F35-SUM(G4:G33)</f>
-        <v>16</v>
-      </c>
-      <c r="H35" s="8">
-        <f>G35-SUM(H4:H33)</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="8">
-        <f>SUM(C4:C33)</f>
-        <v>96</v>
-      </c>
-      <c r="D36" s="2">
-        <f>C36-(SUM(C4:C33)/5)</f>
-        <v>76.8</v>
-      </c>
-      <c r="E36" s="2">
-        <f>D36-(SUM(C4:C33)/5)</f>
-        <v>57.599999999999994</v>
-      </c>
-      <c r="F36" s="2">
-        <f>E36-(SUM(C4:C33)/5)</f>
-        <v>38.399999999999991</v>
-      </c>
-      <c r="G36" s="2">
-        <f>F36-(SUM(C4:C33)/5)</f>
-        <v>19.199999999999992</v>
-      </c>
-      <c r="H36" s="2">
-        <f>G36-(SUM(C4:C33)/5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6668,13 +5303,6 @@
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog.xlsx
+++ b/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/Grupo1_SolucionesABP_U2_NRC10519_Backlog.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80156e5d58948c98/10519_G1_INGSWI/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.6 Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{C9F0101D-9E60-4373-B50C-1FC93A98C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60FA44CE-8AC8-4910-A2A2-0CAD6B0EB8C2}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{C9F0101D-9E60-4373-B50C-1FC93A98C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F390CF5-9462-4F65-9907-3B55776B424E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint0" sheetId="2" r:id="rId2"/>
     <sheet name="burdonchart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$H$1000</definedName>
   </definedNames>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="78">
   <si>
     <t>Tema</t>
   </si>
@@ -259,6 +256,21 @@
   </si>
   <si>
     <t>Dar click en el botón "Retroceder" para visualizar la anterior imágen.</t>
+  </si>
+  <si>
+    <t>Rúbrica</t>
+  </si>
+  <si>
+    <t>Backlog:  /2</t>
+  </si>
+  <si>
+    <t>Sprint:  /2</t>
+  </si>
+  <si>
+    <t>Conclusiones:  /8</t>
+  </si>
+  <si>
+    <t>Recomendaciones:  /8</t>
   </si>
 </sst>
 </file>
@@ -400,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,16 +488,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,71 +878,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Backlog"/>
-      <sheetName val="sprint0"/>
-      <sheetName val="burdonchart"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Horas Estimadas</v>
-          </cell>
-          <cell r="C11">
-            <v>12</v>
-          </cell>
-          <cell r="D11">
-            <v>11</v>
-          </cell>
-          <cell r="E11">
-            <v>10</v>
-          </cell>
-          <cell r="F11">
-            <v>5</v>
-          </cell>
-          <cell r="G11">
-            <v>3</v>
-          </cell>
-          <cell r="H11">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Horas Estimadas
-Restantes</v>
-          </cell>
-          <cell r="C12">
-            <v>12</v>
-          </cell>
-          <cell r="D12">
-            <v>9.6</v>
-          </cell>
-          <cell r="E12">
-            <v>7.1999999999999993</v>
-          </cell>
-          <cell r="F12">
-            <v>4.7999999999999989</v>
-          </cell>
-          <cell r="G12">
-            <v>2.399999999999999</v>
-          </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB9FFD1E-A1F5-4E9F-8462-CCDFD51A7E2B}" name="Table_13" displayName="Table_13" ref="I4:I17" headerRowCount="0">
   <tableColumns count="1">
@@ -1140,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1304,12 +1254,43 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f>SUM(E10:E13)</f>
+        <v>4</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2310,8 +2291,8 @@
   </sheetPr>
   <dimension ref="A1:H987"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" activeCellId="12" sqref="H4 H5 H6 H10 H12 H11 H16 H17 H18 H22 H23 H24 H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2395,12 +2376,12 @@
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="22" t="s">
         <v>52</v>
       </c>
@@ -2413,12 +2394,12 @@
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="22" t="s">
         <v>52</v>
       </c>
@@ -2431,12 +2412,12 @@
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="22" t="s">
         <v>52</v>
       </c>
@@ -2515,12 +2496,12 @@
       <c r="A10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="20" t="s">
         <v>61</v>
       </c>
@@ -2533,12 +2514,12 @@
       <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="20" t="s">
         <v>61</v>
       </c>
@@ -2551,12 +2532,12 @@
       <c r="A12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="20" t="s">
         <v>61</v>
       </c>
@@ -2635,12 +2616,12 @@
       <c r="A16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="22" t="s">
         <v>68</v>
       </c>
@@ -2653,12 +2634,12 @@
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="22" t="s">
         <v>68</v>
       </c>
@@ -2671,12 +2652,12 @@
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="22" t="s">
         <v>68</v>
       </c>
@@ -2755,12 +2736,12 @@
       <c r="A22" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="20" t="s">
         <v>69</v>
       </c>
@@ -2773,12 +2754,12 @@
       <c r="A23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="20" t="s">
         <v>69</v>
       </c>
@@ -2791,12 +2772,12 @@
       <c r="A24" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="20" t="s">
         <v>69</v>
       </c>
@@ -2809,12 +2790,12 @@
       <c r="A25" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="20" t="s">
         <v>69</v>
       </c>
@@ -2825,10 +2806,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -3796,11 +3777,6 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -3810,6 +3786,11 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3823,7 +3804,7 @@
   </sheetPr>
   <dimension ref="A1:I1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -3862,7 +3843,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="6">
@@ -3889,7 +3870,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6">
@@ -3917,7 +3898,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6">
@@ -4029,7 +4010,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="6">
@@ -4057,7 +4038,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="6">
@@ -4085,7 +4066,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="6">
@@ -4226,13 +4207,13 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
